--- a/Valori_compression_high.xlsx
+++ b/Valori_compression_high.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\linearVibrationsControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Spring High compression" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Arduino</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Input (Volt)</t>
+  </si>
+  <si>
+    <t>Rapporto</t>
   </si>
 </sst>
 </file>
@@ -353,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,7 +369,7 @@
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -376,8 +379,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.5</v>
       </c>
@@ -387,8 +393,12 @@
       <c r="C2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -398,8 +408,12 @@
       <c r="C3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">B3/C3</f>
+        <v>-582.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.5</v>
       </c>
@@ -409,8 +423,12 @@
       <c r="C4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.5</v>
       </c>
@@ -420,8 +438,12 @@
       <c r="C5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-537.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -431,8 +453,12 @@
       <c r="C6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-555.55555555555554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -442,8 +468,12 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.4</v>
       </c>
@@ -453,8 +483,12 @@
       <c r="C8">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-541.66666666666674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.2</v>
       </c>
@@ -464,8 +498,12 @@
       <c r="C9">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-2145.8333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -474,6 +512,10 @@
       </c>
       <c r="C10">
         <v>2.4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>562.5</v>
       </c>
     </row>
   </sheetData>
@@ -497,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Valori_compression_high.xlsx
+++ b/Valori_compression_high.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,11 +391,11 @@
         <v>-120</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="D2">
         <f>B2/C2</f>
-        <v>-600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -406,11 +406,11 @@
         <v>-233</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D10" si="0">B3/C3</f>
-        <v>-582.5</v>
+        <v>582.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -421,11 +421,11 @@
         <v>-266</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>-532</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -436,11 +436,11 @@
         <v>-430</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>-537.5</v>
+        <v>537.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -451,11 +451,11 @@
         <v>-500</v>
       </c>
       <c r="C6">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-555.55555555555554</v>
+        <v>555.55555555555554</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -466,11 +466,11 @@
         <v>-550</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-550</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -481,11 +481,11 @@
         <v>-650</v>
       </c>
       <c r="C8">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-541.66666666666674</v>
+        <v>541.66666666666674</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,11 +496,11 @@
         <v>-1030</v>
       </c>
       <c r="C9">
-        <v>0.48</v>
+        <v>-0.48</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-2145.8333333333335</v>
+        <v>2145.8333333333335</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -511,11 +511,11 @@
         <v>1350</v>
       </c>
       <c r="C10">
-        <v>2.4</v>
+        <v>-2.4</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>562.5</v>
+        <v>-562.5</v>
       </c>
     </row>
   </sheetData>

--- a/Valori_compression_high.xlsx
+++ b/Valori_compression_high.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,11 +496,11 @@
         <v>-1030</v>
       </c>
       <c r="C9">
-        <v>-0.48</v>
+        <v>-1.8</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>2145.8333333333335</v>
+        <v>572.22222222222217</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/Valori_compression_high.xlsx
+++ b/Valori_compression_high.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\linearVibrationsControl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinkale/Documents/GitHub/linearVibrationsControl/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20260"/>
   </bookViews>
   <sheets>
     <sheet name="Spring High compression" sheetId="1" r:id="rId1"/>
     <sheet name="Spring medium compression" sheetId="2" r:id="rId2"/>
     <sheet name="Spring low compression" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Arduino</t>
   </si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>Rapporto</t>
+  </si>
+  <si>
+    <t>Rapporto2</t>
   </si>
 </sst>
 </file>
@@ -78,7 +84,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -93,8 +99,1036 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0623117415322168"/>
+          <c:y val="0.0628880032060968"/>
+          <c:w val="0.892882112333001"/>
+          <c:h val="0.698034190583777"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Spring High compression'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>532.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>537.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555.5555555555555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>541.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>572.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>562.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2096921984"/>
+        <c:axId val="-2096787808"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Spring High compression'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2105725024"/>
+        <c:axId val="-2106588320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2096921984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2096787808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2096787808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2096921984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2106588320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2105725024"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2105725024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2106588320"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>451555</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -139,9 +1173,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -174,9 +1208,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -356,20 +1390,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -382,8 +1416,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.5</v>
       </c>
@@ -397,8 +1434,12 @@
         <f>B2/C2</f>
         <v>600</v>
       </c>
+      <c r="E2">
+        <f>C2/A2</f>
+        <v>-0.13333333333333333</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -412,8 +1453,12 @@
         <f t="shared" ref="D3:D10" si="0">B3/C3</f>
         <v>582.5</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="1">C3/A3</f>
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.5</v>
       </c>
@@ -427,8 +1472,12 @@
         <f t="shared" si="0"/>
         <v>532</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3.5</v>
       </c>
@@ -442,8 +1491,12 @@
         <f t="shared" si="0"/>
         <v>537.5</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-0.22857142857142859</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -457,8 +1510,12 @@
         <f t="shared" si="0"/>
         <v>555.55555555555554</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-0.22500000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -472,8 +1529,12 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-0.22222222222222221</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5.4</v>
       </c>
@@ -487,8 +1548,12 @@
         <f t="shared" si="0"/>
         <v>541.66666666666674</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-0.22222222222222221</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7.2</v>
       </c>
@@ -502,24 +1567,33 @@
         <f t="shared" si="0"/>
         <v>572.22222222222217</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1350</v>
+        <v>-1350</v>
       </c>
       <c r="C10">
         <v>-2.4</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>-562.5</v>
+        <v>562.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-0.26666666666666666</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -529,7 +1603,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -541,7 +1615,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Valori_compression_high.xlsx
+++ b/Valori_compression_high.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinkale/Documents/GitHub/linearVibrationsControl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\linearVibrationsControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20260"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Spring High compression" sheetId="1" r:id="rId1"/>
     <sheet name="Spring medium compression" sheetId="2" r:id="rId2"/>
     <sheet name="Spring low compression" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>Arduino</t>
   </si>
@@ -84,7 +84,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,7 +140,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -151,10 +151,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0623117415322168"/>
-          <c:y val="0.0628880032060968"/>
-          <c:w val="0.892882112333001"/>
-          <c:h val="0.698034190583777"/>
+          <c:x val="6.2311741532216802E-2"/>
+          <c:y val="6.2888003206096804E-2"/>
+          <c:w val="0.89288211233300097"/>
+          <c:h val="0.69803419058377703"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -182,28 +182,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>582.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>532.0</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>537.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>555.5555555555555</c:v>
+                  <c:v>555.55555555555554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>550.0</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>541.6666666666667</c:v>
+                  <c:v>541.66666666666674</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>572.2222222222222</c:v>
+                  <c:v>572.22222222222217</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>562.5</c:v>
@@ -223,8 +223,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2096921984"/>
-        <c:axId val="-2096787808"/>
+        <c:axId val="1221225232"/>
+        <c:axId val="1221220336"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -266,7 +266,7 @@
                   <c:v>-0.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-1.2</c:v>
@@ -292,11 +292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2105725024"/>
-        <c:axId val="-2106588320"/>
+        <c:axId val="1221218160"/>
+        <c:axId val="1221223056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2096921984"/>
+        <c:axId val="1221225232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,10 +335,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096787808"/>
+        <c:crossAx val="1221220336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -346,7 +346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096787808"/>
+        <c:axId val="1221220336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,15 +394,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096921984"/>
+        <c:crossAx val="1221225232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106588320"/>
+        <c:axId val="1221223056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,15 +436,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105725024"/>
+        <c:crossAx val="1221218160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2105725024"/>
+        <c:axId val="1221218160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +453,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106588320"/>
+        <c:crossAx val="1221223056"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -495,7 +496,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -525,7 +526,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1392,18 +1393,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="E10" sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.5</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>-0.13333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.5</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.5</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>-0.22857142857142859</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>-0.22500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>-0.22222222222222221</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.4</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>-0.22222222222222221</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.2</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1599,24 +1600,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="A1:E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Valori_compression_high.xlsx
+++ b/Valori_compression_high.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20265" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Spring High compression" sheetId="1" r:id="rId1"/>
@@ -223,8 +223,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1221225232"/>
-        <c:axId val="1221220336"/>
+        <c:axId val="-511232528"/>
+        <c:axId val="-511235792"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -292,11 +292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1221218160"/>
-        <c:axId val="1221223056"/>
+        <c:axId val="-511237968"/>
+        <c:axId val="-511233616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1221225232"/>
+        <c:axId val="-511232528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -338,7 +338,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1221220336"/>
+        <c:crossAx val="-511235792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -346,7 +346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1221220336"/>
+        <c:axId val="-511235792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,12 +397,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1221225232"/>
+        <c:crossAx val="-511232528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1221223056"/>
+        <c:axId val="-511233616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -439,12 +439,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1221218160"/>
+        <c:crossAx val="-511237968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1221218160"/>
+        <c:axId val="-511237968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1221223056"/>
+        <c:crossAx val="-511233616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,13 +1600,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1627,42 +1633,135 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-60</v>
+      </c>
+      <c r="C2">
+        <v>-0.1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D7" si="0">B2/C2</f>
+        <v>600</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E7" si="1">A2/C2</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B3">
+        <v>-310</v>
+      </c>
+      <c r="C3">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>563.63636363636363</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>-2.7272727272727271</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1.5</v>
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-530</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>2.5</v>
+      </c>
+      <c r="B5">
+        <v>-680</v>
+      </c>
+      <c r="C5">
+        <v>-1.2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>566.66666666666674</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-2.0833333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.5</v>
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-880</v>
+      </c>
+      <c r="C6">
+        <v>-1.55</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>567.74193548387098</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-1.9354838709677418</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>3.5</v>
+      </c>
+      <c r="B7">
+        <v>-990</v>
+      </c>
+      <c r="C7">
+        <v>-1.8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-1.9444444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
         <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-1170</v>
+      </c>
+      <c r="C8">
+        <v>-2.1</v>
+      </c>
+      <c r="D8">
+        <f>B8/C8</f>
+        <v>557.14285714285711</v>
+      </c>
+      <c r="E8">
+        <f>A8/C8</f>
+        <v>-1.9047619047619047</v>
       </c>
     </row>
   </sheetData>
@@ -1672,13 +1771,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1698,38 +1804,92 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.25</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="e">
+        <f t="shared" ref="D2:D5" si="0">B2/C2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E2" t="e">
+        <f t="shared" ref="E2:E5" si="1">A2/C2</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="B3">
+        <v>-510</v>
+      </c>
+      <c r="C3">
+        <v>-0.9</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>566.66666666666663</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>-1.6666666666666665</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-900</v>
+      </c>
+      <c r="C4">
+        <v>-1.6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>562.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="B5">
+        <v>-1050</v>
+      </c>
+      <c r="C5">
+        <v>-1.9</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>552.63157894736844</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-1.3157894736842106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
         <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-1335</v>
+      </c>
+      <c r="C6">
+        <v>-2.4</v>
+      </c>
+      <c r="D6">
+        <f>B6/C6</f>
+        <v>556.25</v>
+      </c>
+      <c r="E6">
+        <f>A6/C6</f>
+        <v>-1.25</v>
       </c>
     </row>
   </sheetData>
